--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1276767.503328371</v>
+        <v>1361916.659069279</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4888794.453803538</v>
+        <v>4888794.453803539</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>39.70122005612006</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>187.5255871663201</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.70122005612006</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>14.27400563960391</v>
       </c>
       <c r="U3" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>187.5255871663201</v>
@@ -801,7 +803,7 @@
         <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.00402729331245</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>20.00402729331236</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>199.0051407875782</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>348.8610491158175</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>348.8610491158175</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1759271253404</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.9466692048813</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>42.01012405922953</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>122.6843757335833</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>48.0922371120016</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>88.38165651226163</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.88557034998165</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.901085390402</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>156.8413552787841</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1757061518382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.6761715944833</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>126.3796986693934</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>297.9272583510171</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>75.26131326244199</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>93.49542143817382</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>32.71530508318224</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>25.20549727320314</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189229</v>
+        <v>192.3436201790821</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>20.37880262971615</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>98.3359601467572</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.9840109923298</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.28665244236498</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.2176589792459</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1375,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>145.2481701217156</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1421,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757276</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>74.69219553392834</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>81.4608434426853</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>308.9203564757153</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>92.47445699814486</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>93.35882079148004</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>94.57983363107961</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>308.9203564757153</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>99.84252126103682</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>127.3385186497851</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>115.0138334144192</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>282.6988068886394</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>263.3429757223623</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>75.94848555066497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.9830137483008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>39.52405900590534</v>
+        <v>283.9746808062639</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>210.8035104954929</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>97.01188539214083</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>308.9203564757127</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>23.79925355567458</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>133.733723212912</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>284.7781523974827</v>
+        <v>293.2388594828966</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>104.7946301580757</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>186.560253585126</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>67.85744127285047</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>51.93360397349184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>11.38124588925227</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>150.3013276789172</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.37402914468383</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>157.8252283396946</v>
+        <v>59.24654969937804</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>100.5751131451051</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>162.415483917401</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.35604302001454</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>363.840434204949</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>218.5495062926533</v>
       </c>
       <c r="U43" t="n">
-        <v>268.5207171899711</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>171.6421529642004</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>188.605944229153</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>68.5978099667991</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.1645241199434</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652803</v>
+        <v>520.580321167866</v>
       </c>
       <c r="C2" t="n">
-        <v>750.1023486652803</v>
+        <v>520.580321167866</v>
       </c>
       <c r="D2" t="n">
-        <v>710.0001061843509</v>
+        <v>520.580321167866</v>
       </c>
       <c r="E2" t="n">
         <v>520.580321167866</v>
@@ -4352,28 +4354,28 @@
         <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652803</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652803</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652803</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652803</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652803</v>
+        <v>520.580321167866</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652803</v>
+        <v>520.580321167866</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652803</v>
+        <v>520.580321167866</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652803</v>
+        <v>520.580321167866</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
@@ -4419,10 +4421,10 @@
         <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017067</v>
@@ -4431,28 +4433,28 @@
         <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>525.6547321810249</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652803</v>
+        <v>511.2365446662735</v>
       </c>
       <c r="U3" t="n">
-        <v>583.2614020227604</v>
+        <v>511.2365446662735</v>
       </c>
       <c r="V3" t="n">
-        <v>393.8416170062754</v>
+        <v>321.8167596497885</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897905</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>132.3969746333036</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404144</v>
+        <v>711.6057462810315</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404144</v>
+        <v>711.6057462810315</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404144</v>
+        <v>711.6057462810315</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404144</v>
+        <v>711.6057462810315</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>709.3965921992919</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>725.3468614886974</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>748.7753949309537</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="T4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404144</v>
+        <v>731.8118344560946</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.009727716573</v>
+        <v>1318.301801521354</v>
       </c>
       <c r="C5" t="n">
-        <v>1353.009727716573</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="D5" t="n">
-        <v>1353.009727716573</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E5" t="n">
-        <v>1151.994433991747</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F5" t="n">
-        <v>799.6095358949616</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G5" t="n">
-        <v>447.2246377981762</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>132.9055194897516</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9088839292654</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>80.85342866452334</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>210.9420950112683</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>409.2303506990984</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
-        <v>661.5336786524952</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>922.5333466060196</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1155.652670727852</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>1320.113619600701</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>1395.44419646327</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>1353.009727716573</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>1353.009727716573</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>1353.009727716573</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>1353.009727716573</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>1353.009727716573</v>
+        <v>2044.536215052548</v>
       </c>
       <c r="W5" t="n">
-        <v>1353.009727716573</v>
+        <v>1691.767559782434</v>
       </c>
       <c r="X5" t="n">
-        <v>1353.009727716573</v>
+        <v>1318.301801521354</v>
       </c>
       <c r="Y5" t="n">
-        <v>1353.009727716573</v>
+        <v>1318.301801521354</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.48690121411551</v>
+        <v>307.0966263366561</v>
       </c>
       <c r="C6" t="n">
-        <v>27.9088839292654</v>
+        <v>132.6435970555291</v>
       </c>
       <c r="D6" t="n">
-        <v>27.9088839292654</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E6" t="n">
-        <v>27.9088839292654</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F6" t="n">
-        <v>27.9088839292654</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G6" t="n">
-        <v>27.9088839292654</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>27.9088839292654</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9088839292654</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>40.62444511015011</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>140.5121891979934</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1461291925067</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M6" t="n">
-        <v>551.2942853858428</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N6" t="n">
-        <v>801.9424233621518</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.016706323307</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1155.879008147623</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1204.133371205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1149.703502164615</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1149.703502164615</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1149.703502164615</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1149.703502164615</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>914.5513939328719</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W6" t="n">
-        <v>660.3140372046703</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X6" t="n">
-        <v>452.4625369991375</v>
+        <v>683.072262121678</v>
       </c>
       <c r="Y6" t="n">
-        <v>244.7022382341835</v>
+        <v>475.3119633567241</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.2782840826373</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C7" t="n">
-        <v>147.2782840826373</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D7" t="n">
-        <v>147.2782840826373</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E7" t="n">
-        <v>147.2782840826373</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="F7" t="n">
-        <v>147.2782840826373</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="G7" t="n">
-        <v>147.2782840826373</v>
+        <v>211.7470962355521</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2782840826373</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I7" t="n">
-        <v>27.9088839292654</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J7" t="n">
-        <v>27.9088839292654</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>42.75160764526303</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
-        <v>91.65098153303059</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>146.4667981137235</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N7" t="n">
-        <v>207.8367430014498</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O7" t="n">
-        <v>244.208731201063</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y7" t="n">
-        <v>256.2692794264777</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1243.896832695831</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>874.934315755419</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>874.934315755419</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>874.934315755419</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>463.9484109658114</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>48.11389420370699</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>48.11389420370699</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>48.11389420370699</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>173.6006955371258</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>412.41139988441</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>745.5789575721426</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1147.961497459639</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1561.468815899342</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1938.596789767454</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2225.96578944089</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2393.595193823331</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2405.694710185349</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2278.038448903134</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2278.038448903134</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2024.447006848402</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>1693.384119504832</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>1693.384119504832</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.016509199431</v>
+        <v>1319.918361243752</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>1243.896832695831</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5297702181789</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0767409370519</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1423312758006</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9048762703451</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.37031829723</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>175.5994765485111</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>81.15965691399208</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>48.11389420370699</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>104.035126450247</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>277.7682440873328</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>557.6964019039189</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>903.7162268899251</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1273.302811944935</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1589.182537471366</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1823.370799411578</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1930.000254186834</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1904.540155931073</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1767.528648385245</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1573.242163355869</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>1573.242163355869</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1338.090055124126</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1338.090055124126</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.505406003201</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.745107238247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>631.7841389438286</v>
+        <v>60.21895581212093</v>
       </c>
       <c r="C10" t="n">
-        <v>462.8479560159217</v>
+        <v>60.21895581212093</v>
       </c>
       <c r="D10" t="n">
-        <v>312.7313166035859</v>
+        <v>60.21895581212093</v>
       </c>
       <c r="E10" t="n">
-        <v>312.7313166035859</v>
+        <v>60.21895581212093</v>
       </c>
       <c r="F10" t="n">
-        <v>165.8413691056756</v>
+        <v>60.21895581212093</v>
       </c>
       <c r="G10" t="n">
-        <v>165.8413691056756</v>
+        <v>60.21895581212093</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>60.21895581212093</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>60.21895581212093</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>48.11389420370699</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>107.499855313909</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>213.3992373663729</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>328.3135705658659</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>448.3530236739869</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>538.9157986502112</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>597.3459267107195</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>581.9048636376235</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>581.9048636376235</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>384.261695540748</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>384.261695540748</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>384.261695540748</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438286</v>
+        <v>384.261695540748</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438286</v>
+        <v>384.261695540748</v>
       </c>
       <c r="X10" t="n">
-        <v>631.7841389438286</v>
+        <v>281.011534955651</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.7841389438286</v>
+        <v>60.21895581212093</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796274</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392158</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>406.0926155839475</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5036,55 +5038,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180641</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919561</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943749</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.0944266746549</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>700.0944266746549</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>700.0944266746549</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
@@ -5206,43 +5208,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>920.887005818185</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V13" t="n">
-        <v>920.887005818185</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W13" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X13" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y13" t="n">
-        <v>700.0944266746549</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490677</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136267</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136267</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5357,13 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5413,22 +5415,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="C16" t="n">
-        <v>751.9508228902781</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D16" t="n">
-        <v>601.8341834779424</v>
+        <v>770.7703664058492</v>
       </c>
       <c r="E16" t="n">
-        <v>453.9210898955492</v>
+        <v>622.8572728234561</v>
       </c>
       <c r="F16" t="n">
-        <v>307.0311423976389</v>
+        <v>475.9673253255457</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>308.2644887002647</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>162.0473019181225</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218345</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2047.583838282732</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C17" t="n">
-        <v>1678.62132134232</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>378.5528805490677</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923659</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W17" t="n">
-        <v>2434.183678346854</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X17" t="n">
-        <v>2434.183678346854</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y17" t="n">
-        <v>2434.183678346854</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031464</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.151745215812</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992583</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U19" t="n">
-        <v>792.2622395052706</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V19" t="n">
-        <v>537.5777512993837</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W19" t="n">
-        <v>248.1605812624231</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X19" t="n">
-        <v>248.1605812624231</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>2196.097994299125</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1827.135477358714</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1468.869778751963</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>1083.081526153719</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>672.0956213641114</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.72178906653</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="W20" t="n">
-        <v>2630.72178906653</v>
+        <v>2972.837166339059</v>
       </c>
       <c r="X20" t="n">
-        <v>2630.72178906653</v>
+        <v>2972.837166339059</v>
       </c>
       <c r="Y20" t="n">
-        <v>2630.72178906653</v>
+        <v>2582.697834363247</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556941</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614563</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609107</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635992</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686102</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064777</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080158</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986332</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.00586397898</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291646</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513962</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068417</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486472</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962575</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201689</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695169</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373024</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.31273450744</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275697</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547496</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341963</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577009</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2621.347571635504</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="C22" t="n">
-        <v>2621.347571635504</v>
+        <v>751.9508228902789</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.230932223169</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.230932223169</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.230932223169</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.230932223169</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250629</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="W22" t="n">
-        <v>3036.188651572209</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="X22" t="n">
-        <v>2808.199100674192</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="Y22" t="n">
-        <v>2621.347571635504</v>
+        <v>920.8870058181858</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796256</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C23" t="n">
-        <v>921.7704558796256</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D23" t="n">
-        <v>563.5047572728752</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E23" t="n">
-        <v>563.5047572728752</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="F23" t="n">
-        <v>563.5047572728752</v>
+        <v>353.3552283577025</v>
       </c>
       <c r="G23" t="n">
-        <v>148.4323071178716</v>
+        <v>353.3552283577025</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
@@ -6014,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6080,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
         <v>66.51211643218342</v>
@@ -6172,25 +6174,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U25" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V25" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W25" t="n">
-        <v>294.5016673302007</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218342</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218342</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W26" t="n">
-        <v>2755.806928794324</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X26" t="n">
-        <v>2755.806928794324</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y26" t="n">
-        <v>2731.767278738087</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>518.4459618444147</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C28" t="n">
-        <v>349.5097789165078</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D28" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596504</v>
@@ -6424,10 +6426,10 @@
         <v>920.8870058181845</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181845</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y28" t="n">
-        <v>700.0944266746544</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.514489367197</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912092</v>
@@ -6467,10 +6469,10 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6479,34 +6481,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734406</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.169188758594</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
         <v>618.1564155387305</v>
@@ -6528,46 +6530,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
         <v>2242.828302297192</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>417.6040489720652</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C31" t="n">
-        <v>417.6040489720652</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D31" t="n">
-        <v>417.6040489720652</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E31" t="n">
-        <v>269.6909553896721</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F31" t="n">
-        <v>269.6909553896721</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>269.6909553896721</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S31" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U31" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V31" t="n">
-        <v>417.6040489720652</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W31" t="n">
-        <v>417.6040489720652</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="X31" t="n">
-        <v>417.6040489720652</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.6040489720652</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="32">
@@ -6701,10 +6703,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
@@ -6713,7 +6715,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
@@ -6725,22 +6727,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794323</v>
+        <v>3051.085204020816</v>
       </c>
       <c r="V32" t="n">
-        <v>2755.806928794323</v>
+        <v>2720.022316677245</v>
       </c>
       <c r="W32" t="n">
-        <v>2403.038273524209</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="X32" t="n">
-        <v>2029.572515263129</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y32" t="n">
         <v>1977.114329431319</v>
@@ -6780,25 +6782,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.51211643218339</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218339</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218339</v>
+        <v>2893.972840781188</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218339</v>
+        <v>2882.476632812246</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218339</v>
+        <v>2882.476632812246</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218339</v>
+        <v>2714.773796186965</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962282</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372931</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L34" t="n">
-        <v>332.3555681596504</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588481</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068853</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596438</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181845</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S34" t="n">
-        <v>729.201121645011</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T34" t="n">
-        <v>507.434506214537</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="U34" t="n">
-        <v>218.3316393401806</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="V34" t="n">
-        <v>66.51211643218339</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="W34" t="n">
-        <v>66.51211643218339</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="X34" t="n">
-        <v>66.51211643218339</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.51211643218339</v>
+        <v>3044.089480193524</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1559.116588708439</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1190.154071768027</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1190.154071768027</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,19 +6937,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3293.914883079187</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3293.914883079187</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3040.384406353023</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2709.321519009452</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2709.321519009452</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X35" t="n">
-        <v>2335.855760748373</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y35" t="n">
-        <v>1945.716428772561</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.4780323548191</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C37" t="n">
-        <v>364.5418494269122</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
         <v>66.51211643218342</v>
@@ -7129,16 +7131,16 @@
         <v>920.8870058181845</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181845</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181845</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X37" t="n">
-        <v>692.8974549201672</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="Y37" t="n">
-        <v>692.8974549201672</v>
+        <v>445.4099384687676</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1261.532988317206</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C38" t="n">
-        <v>892.5704713767946</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D38" t="n">
-        <v>892.5704713767946</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267228</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2764.506573888334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2411.73791861822</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>2038.27216035714</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>1648.132828381328</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7250,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7266,13 +7268,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>376.7853475753367</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C40" t="n">
-        <v>376.7853475753367</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D40" t="n">
-        <v>376.7853475753367</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E40" t="n">
-        <v>376.7853475753367</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="F40" t="n">
-        <v>376.7853475753367</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>252.4828820224211</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>106.2656952402789</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V40" t="n">
-        <v>666.2025176122974</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W40" t="n">
-        <v>376.7853475753367</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X40" t="n">
-        <v>376.7853475753367</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y40" t="n">
-        <v>376.7853475753367</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2788.565186649821</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2788.565186649821</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>2415.099428388741</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>2047.583838282732</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7503,10 +7505,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2862.686889769358</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>2862.686889769358</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>2862.686889769358</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>2714.773796186965</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>2714.773796186965</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>2714.773796186965</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>2568.556609404823</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.60582160917</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S43" t="n">
-        <v>3133.919937435996</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T43" t="n">
-        <v>3133.919937435996</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U43" t="n">
-        <v>2862.686889769358</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V43" t="n">
-        <v>2862.686889769358</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W43" t="n">
-        <v>2862.686889769358</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X43" t="n">
-        <v>2862.686889769358</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y43" t="n">
-        <v>2862.686889769358</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1405.52688261361</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1405.52688261361</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1232.150970528559</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528559</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389512</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267228</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923657</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653543</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>2182.266054653543</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1792.126722677731</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7740,13 +7742,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>214.4252100145765</v>
+        <v>700.0944266746548</v>
       </c>
       <c r="C46" t="n">
-        <v>214.4252100145765</v>
+        <v>531.1582437467479</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>381.0416043344121</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>233.128510752019</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>233.128510752019</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W46" t="n">
-        <v>631.4698357812235</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X46" t="n">
-        <v>403.4802848832062</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.4252100145765</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
   </sheetData>
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>209.4348714989673</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>71.74176711264083</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>204.7509947629276</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>97.95568926599611</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -23552,13 +23554,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>277.2566436803241</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>72.66698746754818</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>1.77258677875848</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>97.95568926599611</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>249.3984474563762</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23944,19 +23946,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>158.8733195558277</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>137.1238099094087</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.0350347748412</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>147.5787499310911</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>72.66698746754739</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.60163960379401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0837053814151</v>
+        <v>10.63308358105655</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,25 +24414,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>75.40832771011998</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>121.572767959954</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>97.95568926599873</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>362.438685100379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>14.88174980530039</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776834</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97.95568926599788</v>
+        <v>89.49498218058397</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24844,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.96038475624508</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>99.96274475146498</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>183.1377306860515</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>334.3043346825617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>135.0527167573169</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>101.8363156449108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.81373264349202</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22.00675184224269</v>
+        <v>120.5854304825592</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25369,16 +25371,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>227.1771453250298</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>3.610324341627233</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>56.99637738982358</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25606,10 +25608,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>22.39750445110462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0.9994429835159337</v>
       </c>
       <c r="U43" t="n">
-        <v>17.69112101564178</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>183.0408886564826</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>181.125156449316</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>97.42799829222912</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.42012923215142</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740342.1990796868</v>
+        <v>740342.1990796865</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740342.1990796867</v>
+        <v>740342.1990796868</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740342.1990796867</v>
+        <v>740342.1990796869</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740342.1990796865</v>
+        <v>740342.1990796864</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740342.1990796863</v>
+        <v>740342.1990796864</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740342.1990796862</v>
+        <v>740342.1990796865</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740342.1990796864</v>
+        <v>740342.1990796865</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740342.1990796863</v>
+        <v>740342.1990796867</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>411301.2217109366</v>
+        <v>411301.2217109365</v>
       </c>
       <c r="F2" t="n">
         <v>411301.2217109366</v>
       </c>
       <c r="G2" t="n">
-        <v>411301.2217109365</v>
+        <v>411301.2217109367</v>
       </c>
       <c r="H2" t="n">
-        <v>411301.2217109365</v>
+        <v>411301.2217109367</v>
       </c>
       <c r="I2" t="n">
+        <v>411301.2217109367</v>
+      </c>
+      <c r="J2" t="n">
         <v>411301.2217109366</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>411301.2217109367</v>
       </c>
-      <c r="K2" t="n">
-        <v>411301.2217109366</v>
-      </c>
       <c r="L2" t="n">
-        <v>411301.2217109366</v>
+        <v>411301.2217109367</v>
       </c>
       <c r="M2" t="n">
-        <v>411301.2217109366</v>
+        <v>411301.2217109367</v>
       </c>
       <c r="N2" t="n">
         <v>411301.2217109367</v>
@@ -26366,19 +26368,19 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178589.1710753422</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>494533.549851686</v>
+        <v>59871.45719829701</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>219439.6828815236</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41522.58517101825</v>
+        <v>91259.95686487773</v>
       </c>
       <c r="L3" t="n">
-        <v>122126.6339674503</v>
+        <v>15010.50346109867</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>57311.38215281555</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>231055.595774132</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>157675.7383646804</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="I4" t="n">
         <v>584.646989006123</v>
@@ -26442,7 +26444,7 @@
         <v>584.646989006123</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="L4" t="n">
         <v>584.646989006123</v>
@@ -26451,13 +26453,13 @@
         <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061229</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26470,31 +26472,31 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69822.62854487338</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>89860.11994103162</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139334</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139327</v>
@@ -26503,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413728.1616014121</v>
+        <v>-413728.1616014119</v>
       </c>
       <c r="C6" t="n">
-        <v>33683.71077082941</v>
+        <v>-138761.2100657701</v>
       </c>
       <c r="D6" t="n">
-        <v>-182913.1283519548</v>
+        <v>205743.7906611681</v>
       </c>
       <c r="E6" t="n">
+        <v>116970.5512790135</v>
+      </c>
+      <c r="F6" t="n">
+        <v>336410.234160537</v>
+      </c>
+      <c r="G6" t="n">
+        <v>336410.2341605369</v>
+      </c>
+      <c r="H6" t="n">
         <v>336410.2341605372</v>
       </c>
-      <c r="F6" t="n">
-        <v>336410.2341605372</v>
-      </c>
-      <c r="G6" t="n">
-        <v>336410.2341605371</v>
-      </c>
-      <c r="H6" t="n">
-        <v>336410.2341605373</v>
-      </c>
       <c r="I6" t="n">
-        <v>336410.2341605372</v>
+        <v>336410.2341605379</v>
       </c>
       <c r="J6" t="n">
         <v>287345.2894319926</v>
       </c>
       <c r="K6" t="n">
-        <v>294887.6489895189</v>
+        <v>245150.2772956596</v>
       </c>
       <c r="L6" t="n">
-        <v>214283.600193087</v>
+        <v>321399.7306994387</v>
       </c>
       <c r="M6" t="n">
-        <v>336410.2341605372</v>
+        <v>279098.8520077218</v>
       </c>
       <c r="N6" t="n">
-        <v>336410.2341605373</v>
+        <v>336410.2341605371</v>
       </c>
       <c r="O6" t="n">
         <v>336410.2341605372</v>
@@ -26738,10 +26740,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.3521448913619</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>902.108272762125</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,10 +26752,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26790,31 +26792,31 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>348.8610491158175</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>601.4236775463373</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022924</v>
@@ -26823,13 +26825,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26960,25 +26962,25 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>138.8822039784573</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>402.4245557019364</v>
+        <v>48.39760822444089</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>187.6684278311733</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.068319931400875e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27014,16 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>161.3354619494974</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="D4" t="n">
-        <v>482.5404062864754</v>
+        <v>59.30872082017414</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>229.9777778559553</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.3354619494974</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>482.5404062864752</v>
+        <v>59.30872082017403</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>229.9777778559555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27260,16 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.3354619494974</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>482.5404062864754</v>
+        <v>59.30872082017414</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>229.9777778559553</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>314.9818215645629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>219.3504585753914</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>37.38049896054366</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27436,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27473,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>181.1355921523973</v>
       </c>
       <c r="U3" t="n">
-        <v>60.69123123399629</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>45.2749999831052</v>
@@ -27521,7 +27523,7 @@
         <v>64.16939599459954</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>146.9979079094017</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27588,7 +27590,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>203.7156461967877</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27616,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>182.9252292846836</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>58.01499662589396</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>63.67846369623672</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0530866647904</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9998334263949</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.12459493159</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>205.0678827365516</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>124.6162618763141</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>59.06340905237712</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8650616062745</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95667609450798</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>48.61941455285668</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2215075791688</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2055152876974</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8441152680185</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.93089479153529</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7514918840645</v>
+        <v>9.610145832147737</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2070020532797</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>39.363656999722</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.71482775085019</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>121.561527301224</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>202.415711778665</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6495974922333</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2514209487966</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808923</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.66270691447895</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>71.80384232745189</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>310.9766253936116</v>
       </c>
     </row>
     <row r="9">
@@ -27986,16 +27988,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8137252499236</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>185.3941825737613</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
-        <v>46.41905476756358</v>
+        <v>147.7638628228272</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>106.5295869551745</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>104.1486779823913</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.9949191299504</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.4919964097912</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76322470308085</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>28.29887499042676</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5292203655246</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>234.5252426431085</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>351.492544324521</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>436.0575823314316</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>485.1980796448456</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>493.0490918324742</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>465.5722761912139</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>397.3551663339054</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.3971816548224</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>173.5754137549026</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>62.96698292145493</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>12.09601613773643</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2210579762464679</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.478455556936137</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>14.27876814198848</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>50.90296544714332</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>139.6816278594795</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>238.7381501742007</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>321.0129050268573</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6069189657922</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5216494331403</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>351.7621868294501</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>282.3201668328313</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.7235549520585</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>91.7939336139823</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>27.46166352466902</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>5.959213407124164</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09726681295632485</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.239487474394259</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02017045415988</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>37.27476877542009</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>87.63176443967411</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0059083887148</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>184.2779832385793</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>194.2952956452746</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>189.6753877861689</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>175.1959204716541</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>149.910375994011</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.7901738785957</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>55.73186407594549</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>21.60088625830722</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>5.295991936048197</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06760840769423239</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.626565920651756</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>37.14056823487481</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>139.813182655927</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>307.8002493079173</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>461.3127847291062</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>572.2993015232524</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>636.7932432146431</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>647.0972236366949</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>611.035558763214</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>521.5047125971238</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>391.6283205637826</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>227.8072715131411</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>82.64037091685198</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.87529231765307</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2901252736521404</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.94038383197891</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>18.74002279832264</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>66.80707491681775</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>183.32371984499</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>313.329436587577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>421.3100947461227</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>491.649008655358</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>504.6614949671816</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>461.6666742691226</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>370.5282073539378</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>247.6882940610272</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>120.4740066907608</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>36.0417786334679</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.821108515739553</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1276568310512442</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.626752623013668</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.46330968461244</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>48.92088797208378</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>115.0114104470663</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>188.9990774737697</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>241.8537490615048</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>255.000867987497</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>248.937517301719</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>229.9340889328774</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>196.7483354233984</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>136.2183491870809</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>73.14471339477818</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>28.34986162106546</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.950670298331125</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08873196125529108</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353141</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.7086478970249</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.994981974642</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781699</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.47933811642221</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>131.4026932795404</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>200.2911673614444</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>254.8518464175729</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>263.6360282358833</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>235.4740647695272</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1221705786359</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.09149178037288</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.84400119281284</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>100.8967111998417</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>182.4585252469831</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>232.4728850437739</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>253.179937349807</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>209.1659423850057</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>148.3457594185011</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.74178086603698</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.99265021817942</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L7" t="n">
-        <v>49.39330695734097</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M7" t="n">
-        <v>55.36951169766957</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>61.98984332093571</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>36.73938201981127</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P7" t="n">
-        <v>12.18237194486343</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>126.754344781231</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>241.2229336841256</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>336.5328865532652</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>406.4470099873704</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>417.684160040104</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>380.9373473415272</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>290.2717168418542</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>169.3226306893331</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>12.22173369900895</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>56.4860931783233</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>175.487997613218</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>282.7557149662485</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>349.5149747333397</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>373.3197828838483</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>319.0704298246782</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>236.5537999396075</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>107.7065199750057</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>59.98581930323436</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>106.9690727802665</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>116.0750840398919</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>121.2519728364858</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>91.47755048103465</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>59.02033137425082</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609551</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525805</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O31" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37385,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
         <v>157.2826706286436</v>
@@ -37713,13 +37715,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037204</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
